--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flask\attendance2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F46A6D-B4A1-48EC-B8B2-9D1B1E1E2330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C628C-D40B-4592-BB6F-8B6C7DCC64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="917" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1278">
   <si>
     <t>Faculty Name</t>
   </si>
@@ -3879,6 +3879,18 @@
   </si>
   <si>
     <t>TURLA ANIL KUMAR</t>
+  </si>
+  <si>
+    <t>V RESH NAINA(CHEC4017)</t>
+  </si>
+  <si>
+    <t>CHEC4017</t>
+  </si>
+  <si>
+    <t>K MANOJ PAVAN KUMAR(CHEC4002)</t>
+  </si>
+  <si>
+    <t>CHEC4002</t>
   </si>
 </sst>
 </file>
@@ -3974,7 +3986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3991,6 +4003,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4293,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4511,6 +4526,28 @@
         <v>35</v>
       </c>
       <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1277</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12225,7 +12262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flask\attendance2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C628C-D40B-4592-BB6F-8B6C7DCC64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3240755-5A39-48AF-8220-CCAD22A6E11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="917" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1278">
   <si>
     <t>Faculty Name</t>
   </si>
@@ -3986,7 +3986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4003,9 +4003,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4310,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4528,13 +4525,13 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>1274</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>1275</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -4558,15 +4555,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" customWidth="1"/>
     <col min="4" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4836,7 +4833,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
@@ -4852,7 +4849,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -4868,7 +4865,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
@@ -4884,7 +4881,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
@@ -4900,7 +4897,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
@@ -4916,7 +4913,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
@@ -4932,7 +4929,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
@@ -4948,7 +4945,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
@@ -4964,7 +4961,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
@@ -4980,7 +4977,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
@@ -4996,7 +4993,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -5012,7 +5009,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
@@ -5028,7 +5025,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>105</v>
       </c>
@@ -5044,7 +5041,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -5060,7 +5057,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -5076,7 +5073,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>111</v>
       </c>
@@ -5092,7 +5089,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
@@ -5108,7 +5105,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>115</v>
       </c>
@@ -5124,7 +5121,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>117</v>
       </c>
@@ -5140,7 +5137,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>119</v>
       </c>
@@ -5156,7 +5153,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>121</v>
       </c>
@@ -5172,7 +5169,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>123</v>
       </c>
@@ -5188,7 +5185,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>125</v>
       </c>
@@ -5204,7 +5201,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
@@ -5220,7 +5217,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>129</v>
       </c>
@@ -5236,7 +5233,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>131</v>
       </c>
@@ -5252,7 +5249,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>133</v>
       </c>
@@ -5268,7 +5265,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>135</v>
       </c>
@@ -5284,7 +5281,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>137</v>
       </c>
@@ -5300,7 +5297,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>139</v>
       </c>
@@ -5316,7 +5313,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>141</v>
       </c>
@@ -5332,7 +5329,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>143</v>
       </c>
@@ -5348,7 +5345,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>145</v>
       </c>
@@ -5364,7 +5361,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>147</v>
       </c>
@@ -5380,7 +5377,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
@@ -5396,7 +5393,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>151</v>
       </c>
@@ -5412,7 +5409,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>153</v>
       </c>
@@ -5428,7 +5425,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>155</v>
       </c>
@@ -5444,7 +5441,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>157</v>
       </c>
@@ -5460,7 +5457,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>159</v>
       </c>
@@ -5476,7 +5473,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>161</v>
       </c>
@@ -5492,7 +5489,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>163</v>
       </c>
@@ -5508,7 +5505,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>165</v>
       </c>
@@ -5524,7 +5521,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>167</v>
       </c>
@@ -5540,7 +5537,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>169</v>
       </c>
@@ -5556,7 +5553,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>171</v>
       </c>
@@ -5572,7 +5569,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>173</v>
       </c>
@@ -5588,7 +5585,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>175</v>
       </c>
@@ -5604,7 +5601,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>177</v>
       </c>
@@ -5620,7 +5617,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>179</v>
       </c>
@@ -5636,7 +5633,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>181</v>
       </c>
@@ -12014,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="M6" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12262,9 +12259,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -16140,11 +16144,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -17006,10 +17017,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B79" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C79" t="s">
         <v>860</v>
@@ -17017,10 +17028,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B80" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C80" t="s">
         <v>860</v>
@@ -17028,10 +17039,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B81" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C81" t="s">
         <v>860</v>
@@ -17039,10 +17050,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="B82" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C82" t="s">
         <v>860</v>
@@ -17050,34 +17061,12 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B83" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C83" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>905</v>
-      </c>
-      <c r="B84" t="s">
-        <v>906</v>
-      </c>
-      <c r="C84" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>907</v>
-      </c>
-      <c r="B85" t="s">
-        <v>908</v>
-      </c>
-      <c r="C85" t="s">
         <v>860</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flask\attendance2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ECF0DA-58DD-48B0-ADAD-BC3D30AAFEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E7F20-C5EA-416F-BAE7-97FECD198EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4280,7 +4280,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
